--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/DISTRICT_OF_COLUMBIA_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/DISTRICT_OF_COLUMBIA_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tecpatan</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Chilapa De Alvarez</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Xalpatlahuac</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Mineral De La Reforma</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Ocotlan</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Atenco</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cuautitlan</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tlaltizapan</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Zacatepec De Hidalgo</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1534,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -1547,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Magdalena Apasco</t>
@@ -1560,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>San Juan Bautista Guelache</t>
@@ -1599,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlan</t>
@@ -1612,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>San Juan Cotzocon</t>
@@ -1625,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Lucas Ojitlan</t>
@@ -1638,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Mateo Sindihui</t>
@@ -1651,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1664,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Santa Ana Del Valle</t>
@@ -1677,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Santa Cruz Nundaco</t>
@@ -1690,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Santa Lucia Monteverde</t>
@@ -1703,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Santa Maria Ipalapa</t>
@@ -1716,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Santa Maria Petapa</t>
@@ -1729,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Santa Maria Yolotepec</t>
@@ -1742,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Santiago Yolomecatl</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santo Tomas Mazaltepec</t>
@@ -1768,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -1781,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Zimatlan De Alvarez</t>
@@ -1794,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1825,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Acatlan</t>
@@ -1838,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Acatzingo</t>
@@ -1851,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Ahuatlan</t>
@@ -1864,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1890,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1903,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -1916,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Coxcatlan</t>
@@ -1929,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -1942,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -1981,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1994,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -2007,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -2020,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -2033,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2046,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Quimixtlan</t>
@@ -2059,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -2072,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Santa Ines Ahuatempan</t>
@@ -2085,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tecomatlan</t>
@@ -2098,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tehuacan</t>
@@ -2111,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2124,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tepanco De Lopez</t>
@@ -2137,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -2150,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -2163,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -2176,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juarez</t>
@@ -2189,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -2202,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -2215,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2228,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2259,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -2272,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2303,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2334,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2365,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -2378,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -2391,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tetla De La Solidaridad</t>
@@ -2404,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -2417,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2448,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Amatlan De Los Reyes</t>
@@ -2461,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -2474,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -2487,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -2500,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Cuitlahuac</t>
@@ -2513,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Hidalgotitlan</t>
@@ -2526,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2539,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Las Minas</t>
@@ -2552,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Lerdo De Tejada</t>
@@ -2565,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2578,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2591,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -2604,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Temapache</t>
@@ -2617,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2630,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2643,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2656,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2669,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2682,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2695,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2726,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -2739,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Total</t>
